--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_295.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_295.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,583 +488,584 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (11.7, 20.02)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96), (0.78, 5.26)]</t>
+          <t>[('0:01:08.660000', '0:01:19.220000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:03.900000', '0:00:16.080000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4363636363636363</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(7.76, 25.82)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(7.02, 24.78)]</t>
+          <t>[('0:00:24.401147', '0:00:28.461467'), ('0:00:08.158789', '0:00:22.589990')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:02:14.840000', '0:02:17.480000'), ('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(129.38, 134.38)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[('0:02:38.280000', '0:02:43.560000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>[('0:02:28.100000', '0:02:32.600000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>0.1348837209302326</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
+          <t>[('0:00:35.820000', '0:00:37.760000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:12.780000', '0:00:16.740000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7/A', 'A:min', 'D:min/A', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6000000000000001</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(25.26, 36.1)]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(53.28, 65.12)]</t>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:37.995918', '0:00:49.466575')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1057579318448884</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
-        </is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3540229885057471</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3), (0.56, 4.26)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526), (13.648526, 21.12535)]</t>
+          <t>[('0:00:38.841000', '0:00:47.891000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:00:26.040000', '0:00:59.820000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(8.34, 16.5)]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(19.36, 22.38)]</t>
+          <t>[('0:00:12.540000', '0:00:25.940000'), ('0:01:09.240000', '0:01:15.880000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:13.660000', '0:00:17.900000'), ('0:00:31.600000', '0:00:33.800000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(37.54, 45.38)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(90.92, 100.48)]</t>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min', 'A:min/C', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:min', 'F#:min', 'B']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(5.02, 8.7)]</t>
+          <t>[['D#:min', 'B', 'F:hdim7/G#', 'A#:7', 'D#:min', 'G#:min/B', 'A#:7', 'F#:min/A', 'G#:7', 'C#:min', 'G#:7', 'C#:min', 'G#', 'G#:min', 'D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(39.979523, 47.885918)]</t>
+          <t>[('0:00:15.620000', '0:00:58.080000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
+          <t>[('0:00:16.520000', '0:01:04.980000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.5, 23.02)]</t>
+          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(1.64, 23.8)]</t>
+          <t>[('0:01:30.600000', '0:01:41.180000'), ('0:00:42.440000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:30.240000', '0:00:38.500000'), ('0:01:24.620000', '0:01:31.740000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1547619047619048</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G', 'G']]</t>
+          <t>[['C:maj/E', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(65.382154, 77.68873)]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(75.705034, 80.407074)]</t>
+          <t>[('0:00:38.900000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>[('0:00:32.980000', '0:00:35.260000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(1.36, 6.46)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(17.38, 31.86)]</t>
+          <t>[('0:00:07.140000', '0:00:30.180000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:32.700000', '0:00:45.640000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
@@ -1068,135 +1074,100 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(34.86, 39.7)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(30.02, 32.12)]</t>
+          <t>[('0:00:07.540000', '0:02:02.260000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(3.9, 7.72)]</t>
+          <t>[('0:00:05.060000', '0:02:03.260000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:05.440000', '0:01:53.760000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(3.82, 6.46)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(41.32, 48.94)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
